--- a/Piece Movements - Vixon.xlsx
+++ b/Piece Movements - Vixon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\OneDrive\Belgeler\GitHub\Kerd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF748853-C724-490B-AD00-49A15F9E15D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646186B-2389-47A1-92DB-EC0AC20AB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,36 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Can take or move</t>
+  </si>
+  <si>
+    <t>Can move</t>
+  </si>
+  <si>
+    <t>Can take</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -79,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,11 +123,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +187,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,15 +303,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81032</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60607</xdr:rowOff>
+      <xdr:colOff>115668</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>753385</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>676931</xdr:rowOff>
+      <xdr:colOff>788021</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>711567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -262,7 +326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6653282" y="10061857"/>
+          <a:off x="981577" y="6156607"/>
           <a:ext cx="672353" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -407,15 +471,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>143015</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>117149</xdr:rowOff>
+      <xdr:colOff>212287</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>725721</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>722266</xdr:rowOff>
+      <xdr:colOff>794993</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>670311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -430,7 +494,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572515" y="10118399"/>
+          <a:off x="1944105" y="6126558"/>
           <a:ext cx="582706" cy="605117"/>
         </a:xfrm>
         <a:prstGeom prst="chord">
@@ -657,15 +721,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58883</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>782169</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>764852</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>787774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -681,7 +745,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219700" y="6429375"/>
+          <a:off x="9583883" y="10562359"/>
           <a:ext cx="705969" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="heart">
@@ -9713,6 +9777,6785 @@
           <a:endParaRPr lang="en-GB" sz="3200" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>248965</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>262121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>608965</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>622121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Oval 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC180F3-8B6F-4B5A-B26E-F93F0573D97D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12328906" y="14930621"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="552579"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>268941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>617736</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>628941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Oval 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F414DD3-09AF-4ED2-8961-D0026F062611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7160560" y="14937441"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>268941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>606528</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>628941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Oval 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EE5606-B806-46A5-944C-C62046023295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9737910" y="14937441"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>258753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>618753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Oval 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D131A040-4B1A-43C7-B67D-806C1F767EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10632345" y="11515571"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229210</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>245510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>589210</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>605510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Oval 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF9C04C-FE7B-4395-A42B-4A12A6D8AC04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620119" y="9770510"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>262829</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>279129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622829</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>639129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Oval 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F226EA8-4406-4F15-967E-E47091DFE2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8056011" y="8938220"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>309690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>669690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Oval 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAD342D-930E-4776-9094-4270080CEE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905620" y="9834690"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>287278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>647278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Oval 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AA698D-C03A-4F07-A327-5D5F83FEBF19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162596" y="8080460"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251623</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>267922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>611623</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>627922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Oval 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3EC70C-11E6-4F6A-A8D5-81E46D4240E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12374350" y="13256558"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>280148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595324</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>640148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Oval 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416A8085-A45E-401A-8DE9-B96E414FAE53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11492142" y="12402875"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>629960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Oval 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A32DF7-6274-4BEA-85BA-F45625EB77C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11492142" y="8929051"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223098</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>263847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>583098</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>623847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="Oval 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14051DE7-7474-4C19-A93A-3A85EB250BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12345825" y="8057029"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>251623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>629960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>611623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Oval 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F6CC31-0F4E-4693-829E-E67F9D545083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929051" y="11508441"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258754</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>251623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618754</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>611623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Oval 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36A23EA-22EE-4BD2-8993-7D37AC44C6CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7186027" y="13240259"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258754</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>251623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618754</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>611623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="Oval 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2A2E54-384E-4B94-A325-C1B71DB59593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8051936" y="12374350"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>241435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>601435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Oval 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CEBD1A-6CF9-42C0-BD98-413EAFE10516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848572" y="17559617"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>606529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>640147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="Oval 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1EF7FD-54C9-415D-87A6-256B3B58B668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11503347" y="18464238"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>250604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628941</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>610604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="Oval 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331CCC99-0EF8-4AAC-B08C-02F7F42E109F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12391668" y="21032422"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>287278</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>314784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647278</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>674784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="Oval 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6511E760-12D2-4394-9441-BF1BAE9C8857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12410005" y="17632966"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252642</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>269960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612642</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>629960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="Oval 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C482C532-F973-42E1-962C-33B029DE139A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11509460" y="20185869"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>281166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>565780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>641166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="Oval 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96EBA14-4035-430B-B433-4405202BDD78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9730780" y="20197075"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218005</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>268940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578005</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>628940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="Oval 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0603E1-A3B5-4AF0-8B7E-E6A441D99126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9743005" y="18453031"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241436</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>303577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601436</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>663577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="Oval 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2C7F3D-8116-4BFD-A4DE-77F13E95E81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8900527" y="21085395"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="Oval 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF9B93B-B8FB-407B-979E-B045A8708F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="7204364"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>241436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>258753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>601436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>618753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="Oval 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D044A8CA-45E7-4ED0-B862-3C78B4838E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10528436" y="11403003"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>229210</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>245510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589210</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>605510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="Oval 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92EAB3E-310E-4152-96A3-3924C49D44D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10516210" y="9675260"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>262829</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>279129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>622829</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>639129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="Oval 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804E9434-D0C5-4EE6-8E94-25791F0BC27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978079" y="8851629"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>309690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>606529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>669690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="Oval 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF69D26D-7BCC-45FF-BF0A-C40AC1BED6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8819029" y="9739440"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>287278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>595323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>647278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="Oval 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF1463F-808F-43D1-97DD-2B4BD35899EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7093323" y="8002528"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>251623</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>267922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>611623</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>627922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="Oval 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CACB31F-564B-44E9-AE64-030B05AC3CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12253123" y="13126672"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>280148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>595324</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>640148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="Oval 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A7D6DE-42C2-4A20-99AA-45B137792C1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11379574" y="12281648"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>595324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>629960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="Oval 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B054924-1A61-4240-9042-B639980AC864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11379574" y="8842460"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>223098</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>263847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>583098</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>623847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="Oval 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A28F47-6FB0-46BD-AC80-D2071684248E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12224598" y="7979097"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>269960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>251623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>629960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>611623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="Oval 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CC9F81-093C-45D4-A608-618B0844B8BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8842460" y="11395873"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258754</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>251623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>618754</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>611623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="Oval 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3481EDA-BA36-40F0-8ACC-92469417C992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7116754" y="13110373"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>258754</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>251623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>618754</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>611623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="Oval 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB81316E-1E65-418C-BE44-332753A42A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7974004" y="12253123"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>258753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>584118</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>618753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="Oval 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A8F68D-2C42-408E-BA76-E770430D0C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18408209" y="17576935"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>263848</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>262828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>623848</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>622828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="Oval 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6859CA3E-5A62-4346-8A4B-5B9C1C5E1A88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19313848" y="19312828"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>218005</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578005</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>588193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="Oval 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B6738D-1030-4659-9E6E-24C53315A7ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18402096" y="14948648"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304597</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>269961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>664597</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>629961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="Oval 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CDEFFA-2671-4340-A3ED-C1B84E2C15EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20220506" y="19319961"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>218005</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>303577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578005</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>663577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="Oval 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F84B9D-AEC7-41C6-9DBD-74413BFF0424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18402096" y="18487668"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="Oval 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386B551D-AE61-4721-A20D-F9D97AD08341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6225886" y="7135091"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676646</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>703860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="Rectangle 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EF6286-9679-4540-B834-B927116C775B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17491364" y="10564091"/>
+          <a:ext cx="503464" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>693964</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>703859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="Rectangle 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9684B4-F30D-48EF-A3DA-26E755A38607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18374591" y="19223181"/>
+          <a:ext cx="503464" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>231249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>591249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>567818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="Oval 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C9E0A1-18D9-4937-A13F-D10610A6B253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18415340" y="15794182"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>252642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585136</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>612642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="Oval 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C8E6D9-1F0B-4912-9D0D-4AB2E19C2EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18409227" y="16704915"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>213931</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>573931</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>602455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="Oval 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9E2BD7-C857-4921-9C74-300478530826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18398022" y="20158364"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>287279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>567818</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>647279</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="Oval 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED52FFAC-E274-4AB3-8BA0-47752E079E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18391909" y="21069097"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>585137</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>567818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="Oval 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F641FC0-214C-4385-AF7E-C95A17E5983B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16677410" y="19257818"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>265886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>214951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>625886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>574951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="Oval 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1180AD-3049-4B85-9DD1-C40BAC3A883E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17584068" y="19264951"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585137</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>567818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="Oval 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C4DCFF-37F4-4EEF-A2A7-3C6DA9C49DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14945592" y="19257818"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>265886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>214951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>625886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>574951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="Oval 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B52DD29-CDD4-42C4-AD2A-7F9BB9B3673A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15852250" y="19264951"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585137</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>567818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="280" name="Oval 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79F6103-F0B7-496D-B59C-D7AA4977331C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14079682" y="19257818"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>293390</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>241435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>653390</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>601435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="Oval 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F05900-6F04-4C5E-A012-66499CC5135E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25404754" y="17559617"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>298484</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>245510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>658484</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>605510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="Oval 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA01AA67-56B8-4BD8-9697-C374E21850B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26275757" y="18429601"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>287277</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>210875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>647277</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>570875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="Oval 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE67194-00B1-42DC-BFF1-1B1B8994EDDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25398641" y="14931330"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>339233</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>252643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>699233</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>612643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="Oval 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642C624E-2DF8-4F1C-A677-F106379256A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27182415" y="18436734"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>287277</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>251622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>647277</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>611622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="Oval 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40F826D-BB16-4B0F-A2FA-EB079A9AD310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27996368" y="18435713"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>300521</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>660521</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>550500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="Oval 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE8180E-D77E-495A-A3C4-A93288D11ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25411885" y="15776864"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>294408</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>235324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>654408</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>595324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="Oval 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61539C17-4122-43DF-AA71-DCC628702A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25405772" y="16687597"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248567</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>608567</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>585137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="Oval 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65DA8D2-DD56-484D-8D81-736350DF38DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25359931" y="19275137"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>269961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>602454</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>629961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="Oval 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12635BC1-CB01-4A62-A508-67612DBA07C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25353818" y="20185870"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>550501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="Oval 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBC81EA-B7AE-4D1D-A5CF-5E03F771AE80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24435956" y="18461182"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>300522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>284225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>660522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>644225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="Oval 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DEC526-F935-41EE-BB7C-5A9591B674B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25411886" y="21066043"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>550501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="Oval 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B291998-3A0D-4526-B365-11F9C764A91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22704137" y="18461182"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>231250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>284224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>591250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>644224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="Oval 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61404C57-45CD-4FF9-8766-970A54AC75E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23610795" y="18468315"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>550501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="Oval 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80F045B-507C-433A-BE62-396512402343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21838228" y="18461182"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>221060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584117</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>581060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="Oval 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734EE074-C984-4150-96AC-59F9A17B7B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9749117" y="9746060"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229211</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>225135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>589211</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>585135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="Oval 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E8BB0D-D6CE-442A-A885-51C6D4207088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620120" y="10616044"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218004</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578004</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>550500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="Oval 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D354A0-F713-4EB9-8F4D-04A0DAE7B756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9743004" y="7117773"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>269960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>232268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>629960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>592268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="Oval 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DC7312-3642-4481-8E49-393008AD6802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11526778" y="10623177"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218004</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>231247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578004</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>591247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="Oval 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A600412D-291D-4439-9CB4-C39A720D6770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12340731" y="10622156"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>231248</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591248</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>530125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="Oval 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5787B8-186A-4D0F-A888-5860FEC427BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9756248" y="7963307"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225135</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585135</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>574949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="Oval 357">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA30B0B-065E-47F6-BB29-1A97AEEDD45E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9750135" y="8874040"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>204762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539294</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>564762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="359" name="Oval 358">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E377E09-19B5-4F5F-BB66-5DC4F6CFE70F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9704294" y="11461580"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>249586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533181</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>609586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="Oval 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EC1F83-8A29-4081-8A19-3A99117DCACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9698181" y="12372313"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>256716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481228</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>616716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="Oval 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED63EDBF-62BF-4FDF-9948-4DB7F6098DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8780319" y="10647625"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>231249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>263850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>623850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="362" name="Oval 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCAE84D-22D0-4160-844C-28867C33CC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9756249" y="13252486"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>256716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>567818</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>616716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="363" name="Oval 362">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560A3ED3-9D40-45EF-BBB5-0316CA3B8C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7135091" y="10647625"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161976</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>263849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>521976</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>623849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="Oval 363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C9B181-FEA7-4BAD-AE6A-5C6912F29EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7955158" y="10654758"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>256717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>602455</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>616717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="365" name="Oval 364">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A005A35-2915-4A45-A954-E06C3D1094A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6303819" y="10647626"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293390</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>290332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653390</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>650332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="366" name="Oval 365">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8FF933-9DA0-4166-8573-0E96B7719E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10684299" y="18474423"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298484</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>294407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>658484</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>654407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="Oval 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1097065-5CF2-410F-A54E-C70421777E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11555302" y="19344407"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>287277</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>259772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647277</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>619772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="Oval 367">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33861CF6-A576-42FC-9E99-9CBEA7E8B6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10678186" y="15846136"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339233</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>301540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>699233</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>661540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="Oval 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97619F3F-2B2D-484D-A056-462BF06D1698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12461960" y="19351540"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>300519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>660519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="Oval 369">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2778A5E6-59F0-4FC3-A386-D6C1CAE62D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6227413" y="19350519"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300521</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>239397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>660521</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>599397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="Oval 370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B796A9-F139-4829-93AF-3C0F247B9FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10691430" y="16691670"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>294408</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>284221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654408</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>644221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="Oval 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90796D5D-4683-4E5B-B5BD-B682AB474180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10685317" y="17602403"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248567</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>274034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608567</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>634034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="Oval 372">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B47B4AD-1E75-4A80-8602-08D0C47C73DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10639476" y="20189943"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>318858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>602454</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>678858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="Oval 373">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492A24E0-D473-4E63-B178-6204AC4004EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10633363" y="21100676"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>325988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>550501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>685988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="Oval 374">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1738B89-478D-42B7-92FA-A81033E9FF06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715501" y="19375988"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>263849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>677840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>623849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="Oval 375">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B852879-D264-486B-ADE7-9BA34B47A7D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10708749" y="14984304"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>325988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>685988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="Oval 376">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DCC557-CB3C-4002-9D42-E358BBA89273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7983682" y="19375988"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231249</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>333121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591249</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>693121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="Oval 377">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7360E2AB-8A8B-459D-8986-E510A7B5CDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8890340" y="19383121"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>325988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>685988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="Oval 378">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B698528-F4E7-4481-98C0-EA323CEC3B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7117773" y="19375988"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567818</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>585136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="Oval 379">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9751B45-6AFE-4A85-A67A-2555DDF689C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6269182" y="14945591"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>277090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>637090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="Oval 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EE8403-42A7-4E18-9EC6-921482EBBBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7117773" y="15863454"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>567818</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>585136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="Oval 381">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B098299-B690-4C64-AF66-51947840F99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="16677409"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>757924</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>789506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="Heart 382">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE205F6-822E-4430-B281-7639A766BA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10442864" y="19223182"/>
+          <a:ext cx="705969" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -9986,15 +16829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE17"/>
+  <dimension ref="A1:BE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="67.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -10031,7 +16874,7 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -10067,6 +16910,22 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="2"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -10260,6 +17119,22 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1"/>
@@ -10294,6 +17169,22 @@
     <row r="10" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="4"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="2"/>
@@ -10326,6 +17217,22 @@
       <c r="BE10" s="2"/>
     </row>
     <row r="11" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="3"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1"/>
@@ -10358,6 +17265,22 @@
       <c r="BE11" s="1"/>
     </row>
     <row r="12" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="2"/>
@@ -10390,6 +17313,22 @@
       <c r="BE12" s="2"/>
     </row>
     <row r="13" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1"/>
@@ -10422,6 +17361,22 @@
       <c r="BE13" s="1"/>
     </row>
     <row r="14" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="2"/>
@@ -10454,6 +17409,22 @@
       <c r="BE14" s="2"/>
     </row>
     <row r="15" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="3"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1"/>
@@ -10486,6 +17457,22 @@
       <c r="BE15" s="1"/>
     </row>
     <row r="16" spans="1:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="4"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="2"/>
@@ -10496,7 +17483,7 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="2"/>
     </row>
-    <row r="17" spans="49:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AW17" s="1"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="1"/>
@@ -10507,8 +17494,153 @@
       <c r="BD17" s="2"/>
       <c r="BE17" s="1"/>
     </row>
+    <row r="18" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="3"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="8:57" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>